--- a/Unity/Assets/Config/Excel/Datas/SpawnConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/SpawnConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6E7C67-C386-4CB4-9A06-76BAF25030CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF46C75-6B5E-4DAF-AB4B-FF6BAE940617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,11 +78,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>##说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1005;1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +430,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -476,7 +476,7 @@
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/SpawnConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/SpawnConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF46C75-6B5E-4DAF-AB4B-FF6BAE940617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E50A052-AEF4-401D-92B5-6D639985EB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -499,7 +499,7 @@
         <v>5000</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>5</v>
@@ -513,7 +513,7 @@
         <v>10000</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>5</v>
@@ -527,7 +527,7 @@
         <v>15000</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>5</v>
@@ -541,7 +541,7 @@
         <v>20000</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>5</v>

--- a/Unity/Assets/Config/Excel/Datas/SpawnConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/SpawnConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E50A052-AEF4-401D-92B5-6D639985EB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E84A63-585A-4DF0-9A79-785DE0E41FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1003;1003;1003;1003;1003;1003;1003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -58,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1004;1004;1004;1004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>延迟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,6 +75,22 @@
   </si>
   <si>
     <t>##</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003;1004;1003;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreatureCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5;5;5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +438,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -438,6 +446,7 @@
     <col min="3" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="38.625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="10" max="10" width="27.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -445,16 +454,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -473,20 +485,23 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -499,10 +514,13 @@
         <v>5000</v>
       </c>
       <c r="D4">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -513,10 +531,13 @@
         <v>10000</v>
       </c>
       <c r="D5">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -527,10 +548,13 @@
         <v>15000</v>
       </c>
       <c r="D6">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -541,10 +565,13 @@
         <v>20000</v>
       </c>
       <c r="D7">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -555,10 +582,13 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -572,7 +602,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/SpawnConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/SpawnConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E84A63-585A-4DF0-9A79-785DE0E41FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418D2B02-42B9-4297-9C30-B9908B782DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -438,7 +438,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -511,10 +511,10 @@
         <v>1001</v>
       </c>
       <c r="C4">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
@@ -528,10 +528,10 @@
         <v>1002</v>
       </c>
       <c r="C5">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>13</v>
@@ -545,10 +545,10 @@
         <v>1003</v>
       </c>
       <c r="C6">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>13</v>
@@ -562,10 +562,10 @@
         <v>1004</v>
       </c>
       <c r="C7">
-        <v>20000</v>
+        <v>400</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>13</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>13</v>

--- a/Unity/Assets/Config/Excel/Datas/SpawnConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/SpawnConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418D2B02-42B9-4297-9C30-B9908B782DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282124A0-CA2A-470A-B266-4FA3A7BA1CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -438,7 +438,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -511,7 +511,7 @@
         <v>1001</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -528,7 +528,7 @@
         <v>1002</v>
       </c>
       <c r="C5">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>1003</v>
       </c>
       <c r="C6">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -562,7 +562,7 @@
         <v>1004</v>
       </c>
       <c r="C7">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="D7">
         <v>0</v>

--- a/Unity/Assets/Config/Excel/Datas/SpawnConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/SpawnConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282124A0-CA2A-470A-B266-4FA3A7BA1CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CBEF3A-379B-41A6-8B35-06570956F8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -438,14 +438,14 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="38.625" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="6" max="6" width="16.875" customWidth="1"/>
     <col min="10" max="10" width="27.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -528,7 +528,7 @@
         <v>1002</v>
       </c>
       <c r="C5">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>1003</v>
       </c>
       <c r="C6">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -562,7 +562,7 @@
         <v>1004</v>
       </c>
       <c r="C7">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -590,6 +590,9 @@
       <c r="F8" t="s">
         <v>15</v>
       </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9">
@@ -606,6 +609,9 @@
       </c>
       <c r="F9" t="s">
         <v>16</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/SpawnConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/SpawnConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CBEF3A-379B-41A6-8B35-06570956F8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A70AF07-7F6E-4C33-B172-D8828D78910F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28830" yWindow="630" windowWidth="28770" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1005;1005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,7 +86,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1;1</t>
+    <t>1;1;1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,12 +145,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -438,7 +433,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -466,7 +461,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -491,7 +486,7 @@
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
@@ -517,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -534,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -551,10 +546,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -568,10 +563,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -585,13 +580,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -604,13 +596,10 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9">
+      <c r="E9">
+        <v>1005</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/SpawnConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/SpawnConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A70AF07-7F6E-4C33-B172-D8828D78910F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FCA50B-EFDF-477B-BA5B-A52372357E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28830" yWindow="630" windowWidth="28770" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,7 +86,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1;1;1</t>
+    <t>1003;1004;1003;7001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;1;1;1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,7 +437,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -512,10 +516,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">

--- a/Unity/Assets/Config/Excel/Datas/SpawnConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/SpawnConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C_GAME\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FCA50B-EFDF-477B-BA5B-A52372357E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19BBB3C-ADED-44D1-9199-18A2190EF438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -437,7 +437,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
